--- a/GPR/results_g/virtual_samples_DotProduct.xlsx
+++ b/GPR/results_g/virtual_samples_DotProduct.xlsx
@@ -458,7 +458,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.15289945500422</v>
+        <v>-1.152900011196258</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4686437663790889</v>
+        <v>-0.4686440947162986</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2156119222460435</v>
+        <v>0.2156118217636595</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8998676108711754</v>
+        <v>0.8998677382436178</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1.584123299496307</v>
+        <v>1.584123654723575</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9517314741186851</v>
+        <v>-0.9517319633224646</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2674757854935524</v>
+        <v>-0.2674760468425066</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4167799031315794</v>
+        <v>0.4167798696374515</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>1.101035591756711</v>
+        <v>1.10103578611741</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.785291280381843</v>
+        <v>1.785291702597367</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.7505634932331491</v>
+        <v>-0.7505639154486727</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06630780460801677</v>
+        <v>-0.06630799896871464</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6179478840171154</v>
+        <v>0.6179479175112433</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>1.302203572642247</v>
+        <v>1.302203833991202</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1.98645926126738</v>
+        <v>1.98645975047116</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5493955123476131</v>
+        <v>-0.5493958675748811</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>-0.9999999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1348601762775193</v>
+        <v>0.134860048905077</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8191158649026514</v>
+        <v>0.8191159653850353</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>1.503371553527783</v>
+        <v>1.503371881864994</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2.187627242152915</v>
+        <v>2.187627798344951</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9113556011344224</v>
+        <v>-0.9113560768931737</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>-1.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7101876202488868</v>
+        <v>-0.710188029019382</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>-1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.509019639363351</v>
+        <v>-0.5090199811455893</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>-1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.307851658477815</v>
+        <v>-0.3078519332717977</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>-1.5</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1066836775922791</v>
+        <v>-0.1066838853980059</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.227099912509291</v>
+        <v>-0.2271001604132156</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0259319316237544</v>
+        <v>-0.02593211253942351</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1752360492617814</v>
+        <v>0.1752359353343685</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3764040301473174</v>
+        <v>0.3764039832081604</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>-0.4999999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.577572011032853</v>
+        <v>0.577572031081952</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4571557761158417</v>
+        <v>0.4571557560667429</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6583237570013775</v>
+        <v>0.6583238039405347</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8594917378869134</v>
+        <v>0.8594918518143264</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>1.060659718772449</v>
+        <v>1.060659899688118</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>1.261827699657985</v>
+        <v>1.261827947561911</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.5</v>
       </c>
       <c r="C37" t="n">
-        <v>1.141411464740974</v>
+        <v>1.141411672546701</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.34257944562651</v>
+        <v>1.342579720420492</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>1.543747426512046</v>
+        <v>1.543747768294285</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>1.744915407397582</v>
+        <v>1.744915816168077</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.5</v>
       </c>
       <c r="C41" t="n">
-        <v>1.946083388283117</v>
+        <v>1.946083864041868</v>
       </c>
     </row>
   </sheetData>
